--- a/Take Home/Tables/1_MSPE All Criteria_a110.5_T200.xlsx
+++ b/Take Home/Tables/1_MSPE All Criteria_a110.5_T200.xlsx
@@ -457,13 +457,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2.0167</v>
+        <v>2.0238</v>
       </c>
       <c r="C2" t="n">
-        <v>2.1625</v>
+        <v>2.0524</v>
       </c>
       <c r="D2" t="n">
-        <v>2.0498</v>
+        <v>2.101</v>
       </c>
     </row>
     <row r="3">
@@ -473,13 +473,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2.0155</v>
+        <v>2.0238</v>
       </c>
       <c r="C3" t="n">
-        <v>2.1621</v>
+        <v>2.0524</v>
       </c>
       <c r="D3" t="n">
-        <v>2.0499</v>
+        <v>2.101</v>
       </c>
     </row>
     <row r="4">
@@ -489,13 +489,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2.0154</v>
+        <v>2.0144</v>
       </c>
       <c r="C4" t="n">
-        <v>2.1582</v>
+        <v>2.0451</v>
       </c>
       <c r="D4" t="n">
-        <v>2.0523</v>
+        <v>2.1067</v>
       </c>
     </row>
     <row r="5">
@@ -505,13 +505,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2.0159</v>
+        <v>2.0152</v>
       </c>
       <c r="C5" t="n">
-        <v>2.1547</v>
+        <v>2.0446</v>
       </c>
       <c r="D5" t="n">
-        <v>2.0487</v>
+        <v>2.1059</v>
       </c>
     </row>
   </sheetData>
